--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3170113.239933471</v>
+        <v>3167862.421547577</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>132.336201967293</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>276.9976861627479</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955304</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>27.77238941128203</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993774</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>144.7268717888059</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>6.367061437612563</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492292</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.5103646250808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>118.9645187111855</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>84.69473660442802</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>114.474660549155</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>200.2234249616281</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,16 +2530,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>223.320071127581</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>200.1941765543137</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.26879610203972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>125.7070030407802</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785988</v>
+        <v>34.70358683202977</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>71.80319228443823</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>67.95608738100145</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121068</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W34" t="n">
-        <v>258.1266653077544</v>
+        <v>188.439924258109</v>
       </c>
       <c r="X34" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>115.1382549693113</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>28.7066258640339</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>67.95608738100145</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121068</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W37" t="n">
         <v>258.1266653077544</v>
@@ -3490,7 +3490,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531006</v>
+        <v>150.6654910165003</v>
       </c>
       <c r="C40" t="n">
         <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>19.06453927944704</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121068</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W40" t="n">
         <v>258.1266653077544</v>
@@ -3727,7 +3727,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>21.72165004770726</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>161.3726923026052</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W43" t="n">
-        <v>258.1266653077544</v>
+        <v>117.5455235693202</v>
       </c>
       <c r="X43" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531006</v>
+        <v>131.0736454040421</v>
       </c>
       <c r="C46" t="n">
         <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>117.0247149940946</v>
@@ -4150,10 +4150,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100155</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121085</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
         <v>191.1526162473326</v>
@@ -4192,16 +4192,16 @@
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>168.3094123557932</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.2403795762991</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2332.269982582792</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2078.508197220883</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1747.445309877312</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.445309877312</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.979551616233</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>983.8402196404209</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>494.1501011631125</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>494.1501011631125</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>487.2046004139091</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.096172420968</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>2338.033285077397</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622689</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,10 +5121,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.7441371531721</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="C13" t="n">
-        <v>539.8079542252655</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384227</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>1157.52626719472</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X13" t="n">
-        <v>929.5367162967023</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.7441371531721</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,7 +5264,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,25 +5279,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622689</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5379,28 +5379,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5437,10 +5437,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,7 +5452,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
@@ -5470,16 +5470,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783402</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413795</v>
+        <v>619.8559841413792</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433622</v>
+        <v>391.8664332433618</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998317</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5519,40 +5519,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5592,10 +5592,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>659.9741347416142</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>659.9741347416142</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>509.8574953292784</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>361.9444017468853</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>361.9444017468853</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,7 +5671,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>841.6225995718539</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5762,16 +5762,16 @@
         <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5841,16 +5841,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839437</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839437</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839437</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5938,22 +5938,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>613.6330486738359</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>411.3871648742117</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3851.47275672694</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4246.247123084117</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4704.725325593105</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015823</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6151,13 +6151,13 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O25" t="n">
         <v>1646.125669518529</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1317.315137079256</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1062.630648873369</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="W25" t="n">
-        <v>1062.630648873369</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="X25" t="n">
-        <v>834.6410979753522</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.848518831822</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364129</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,37 +6306,37 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>242.4509819463048</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D28" t="n">
         <v>242.4509819463048</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208125</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838518</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858345</v>
+        <v>782.2963834300775</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423045</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1418.006381145422</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.321892939535</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888351</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3484.372139114997</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,25 +6777,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.472828938312</v>
+        <v>542.863476463206</v>
       </c>
       <c r="C34" t="n">
-        <v>472.472828938312</v>
+        <v>542.863476463206</v>
       </c>
       <c r="D34" t="n">
-        <v>472.472828938312</v>
+        <v>421.4300017264628</v>
       </c>
       <c r="E34" t="n">
-        <v>472.472828938312</v>
+        <v>421.4300017264628</v>
       </c>
       <c r="F34" t="n">
-        <v>354.2660461159942</v>
+        <v>303.223218904145</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610061</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H34" t="n">
         <v>164.2035469544565</v>
@@ -6859,13 +6859,13 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
         <v>1487.357919090857</v>
@@ -6874,10 +6874,10 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
         <v>2120.09513112621</v>
@@ -6886,7 +6886,7 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U34" t="n">
         <v>1503.589258674984</v>
@@ -6895,13 +6895,13 @@
         <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783321</v>
+        <v>1087.244577308215</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608967</v>
+        <v>887.9381910857907</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929591</v>
+        <v>695.8287766178531</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6938,22 +6938,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7026,28 +7026,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>635.4755484358934</v>
+        <v>472.4728289383117</v>
       </c>
       <c r="C37" t="n">
-        <v>519.1742807901244</v>
+        <v>332.2198106859974</v>
       </c>
       <c r="D37" t="n">
-        <v>519.1742807901244</v>
+        <v>332.2198106859974</v>
       </c>
       <c r="E37" t="n">
-        <v>399.9443518833239</v>
+        <v>332.2198106859974</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7375690610061</v>
+        <v>303.223218904145</v>
       </c>
       <c r="G37" t="n">
-        <v>281.7375690610061</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H37" t="n">
         <v>164.2035469544565</v>
@@ -7102,7 +7102,7 @@
         <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N37" t="n">
         <v>1487.357919090857</v>
@@ -7114,31 +7114,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
         <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>2120.09513112621</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.011680371328</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1666.591978172565</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1440.590654642271</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1179.856649280903</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>980.5502630584781</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y37" t="n">
-        <v>788.4408485905406</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,25 +7172,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>3641.993171584093</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7199,25 +7199,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7263,28 +7263,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>698.4741524686063</v>
+        <v>473.2507644298271</v>
       </c>
       <c r="C40" t="n">
-        <v>558.2211342162921</v>
+        <v>332.9977461775128</v>
       </c>
       <c r="D40" t="n">
-        <v>538.9640238330123</v>
+        <v>332.9977461775128</v>
       </c>
       <c r="E40" t="n">
-        <v>538.9640238330123</v>
+        <v>213.7678172707122</v>
       </c>
       <c r="F40" t="n">
-        <v>420.7572410106945</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>281.7375690610061</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K40" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N40" t="n">
         <v>1487.357919090857</v>
@@ -7351,7 +7351,7 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R40" t="n">
         <v>2120.09513112621</v>
@@ -7360,22 +7360,22 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U40" t="n">
         <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1503.589258674984</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1242.855253313616</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>1043.548867091191</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y40" t="n">
-        <v>851.4394526232535</v>
+        <v>625.4381290929588</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7503,25 +7503,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.472828938312</v>
+        <v>614.4739822094582</v>
       </c>
       <c r="C43" t="n">
-        <v>472.472828938312</v>
+        <v>474.2209639571438</v>
       </c>
       <c r="D43" t="n">
-        <v>472.472828938312</v>
+        <v>352.7874892204006</v>
       </c>
       <c r="E43" t="n">
-        <v>353.2429000315115</v>
+        <v>352.7874892204006</v>
       </c>
       <c r="F43" t="n">
-        <v>235.0361172091938</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G43" t="n">
-        <v>213.0950565549441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7570,16 +7570,16 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413028</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M43" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
         <v>1814.799887709819</v>
@@ -7591,7 +7591,7 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S43" t="n">
         <v>1957.092411628629</v>
@@ -7603,16 +7603,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W43" t="n">
-        <v>1016.853929783321</v>
+        <v>1158.855083054468</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608967</v>
+        <v>959.5486968320429</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929591</v>
+        <v>767.4392823641053</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.56914656307</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811478</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483401</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542182</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232735</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.49719767968</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7710,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>919.8804457288705</v>
+        <v>493.040507472715</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6274274765562</v>
+        <v>352.7874892204007</v>
       </c>
       <c r="D46" t="n">
-        <v>658.1939527398131</v>
+        <v>352.7874892204007</v>
       </c>
       <c r="E46" t="n">
-        <v>538.9640238330126</v>
+        <v>352.7874892204007</v>
       </c>
       <c r="F46" t="n">
-        <v>420.7572410106948</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G46" t="n">
-        <v>281.7375690610063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>164.2035469544566</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>168.796036593878</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413022</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L46" t="n">
-        <v>745.567757388346</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686443</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090855</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.799887709816</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842023</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693086</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.095131126206</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S46" t="n">
-        <v>1957.092411628625</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.008960873744</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1503.58925867498</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1333.579751244886</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W46" t="n">
-        <v>1072.845745883518</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X46" t="n">
-        <v>1072.845745883518</v>
+        <v>817.5475435608971</v>
       </c>
       <c r="Y46" t="n">
-        <v>1072.845745883518</v>
+        <v>625.4381290929596</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>79.70465870845442</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,25 +9167,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>410.4190035206678</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>14.45386895940624</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277313</v>
+        <v>384.814589375506</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>163.3991441460101</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>248.8012738805276</v>
       </c>
       <c r="O32" t="n">
-        <v>23.80814351663787</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704411</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>67.53663776704411</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>160.3329896347539</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.702583647695</v>
+        <v>229.1155640189935</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.5199493098219</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.1559368989784</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>47.06128954784267</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0742887270141</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>18.36122839046666</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>62.8917670780319</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>51.94346676951434</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.5631840798976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>100.0026523482569</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>105.074288727014</v>
+        <v>251.5082513735831</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>118.0376296177325</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.82628294575333</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>69.68674104964541</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>23.71223310047984</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>88.31808913006071</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>161.3726923026052</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.7701561366004057</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101.1546007099287</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>223.7413102949913</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.9078251824843</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100145</v>
+        <v>67.95608738100144</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>140.5811417384342</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>20.36200174905856</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>55.43189793919814</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232581</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732102.7947860797</v>
+        <v>732102.7947860796</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746725.8067899157</v>
+        <v>746725.8067899158</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746725.8067899157</v>
+        <v>746725.8067899158</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846413</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.504384641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846411</v>
-      </c>
       <c r="E2" t="n">
-        <v>675039.0377078719</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="F2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078711</v>
+        <v>675039.0377078713</v>
       </c>
       <c r="H2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="I2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="J2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="K2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="J2" t="n">
-        <v>675039.0377078712</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675039.0377078714</v>
-      </c>
       <c r="L2" t="n">
-        <v>688849.6601559386</v>
+        <v>688849.6601559389</v>
       </c>
       <c r="M2" t="n">
-        <v>688849.6601559393</v>
+        <v>688849.6601559389</v>
       </c>
       <c r="N2" t="n">
         <v>688849.6601559388</v>
       </c>
       <c r="O2" t="n">
-        <v>688849.6601559394</v>
+        <v>688849.6601559392</v>
       </c>
       <c r="P2" t="n">
         <v>688849.6601559388</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306933</v>
+        <v>22717.0664230693</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>27492.30103190632</v>
+        <v>27492.30103190631</v>
       </c>
       <c r="M4" t="n">
+        <v>27492.30103190629</v>
+      </c>
+      <c r="N4" t="n">
         <v>27492.3010319063</v>
       </c>
-      <c r="N4" t="n">
-        <v>27492.30103190632</v>
-      </c>
       <c r="O4" t="n">
-        <v>27492.3010319063</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190641</v>
+        <v>27492.30103190631</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26491,10 +26491,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511487</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158290.1397504409</v>
+        <v>-158290.1397504411</v>
       </c>
       <c r="C6" t="n">
-        <v>431677.7394641036</v>
+        <v>431677.7394641039</v>
       </c>
       <c r="D6" t="n">
-        <v>431677.7394641036</v>
+        <v>431677.7394641035</v>
       </c>
       <c r="E6" t="n">
-        <v>-166870.3868584383</v>
+        <v>-166937.5823486645</v>
       </c>
       <c r="F6" t="n">
-        <v>560507.0271349679</v>
+        <v>560439.8316447423</v>
       </c>
       <c r="G6" t="n">
-        <v>560507.0271349675</v>
+        <v>560439.8316447419</v>
       </c>
       <c r="H6" t="n">
-        <v>560507.0271349679</v>
+        <v>560439.8316447421</v>
       </c>
       <c r="I6" t="n">
-        <v>560507.027134968</v>
+        <v>560439.8316447421</v>
       </c>
       <c r="J6" t="n">
-        <v>384083.8079423747</v>
+        <v>384016.6124521489</v>
       </c>
       <c r="K6" t="n">
-        <v>560507.0271349679</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="L6" t="n">
-        <v>539869.523125848</v>
+        <v>539842.947113411</v>
       </c>
       <c r="M6" t="n">
-        <v>432944.2747099733</v>
+        <v>432917.6986975356</v>
       </c>
       <c r="N6" t="n">
-        <v>562586.5895489176</v>
+        <v>562560.0135364804</v>
       </c>
       <c r="O6" t="n">
-        <v>562586.5895489182</v>
+        <v>562560.0135364805</v>
       </c>
       <c r="P6" t="n">
-        <v>562586.589548919</v>
+        <v>562560.0135364803</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.068200304690336e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>84.11211839036477</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>136.7864838580471</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031429</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.7380702094185</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>223.4517780970073</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.23311616204</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O24" t="n">
         <v>557.7086478970249</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33989,7 +33989,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837991</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>587.7576595966734</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>597.5775642778385</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36130,10 +36130,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>962.7208389335791</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
@@ -36142,7 +36142,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265651</v>
@@ -36364,22 +36364,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>74.06706750163096</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525805</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200632</v>
+        <v>840.4047037678382</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36771,7 +36771,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>414.1934489497296</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>801.103109293439</v>
       </c>
       <c r="O32" t="n">
-        <v>531.8611444048569</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552631</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,13 +37473,13 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q37" t="n">
         <v>106.7905715667303</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>575.5896386552631</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>559.0949758541256</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37710,7 +37710,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190286</v>
+        <v>73.9747496419029</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q43" t="n">
         <v>106.7905715667303</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.336699126564</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923307</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302252</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129099</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359126</v>
+        <v>737.1685649072126</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908531</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636232</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152067</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004657</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.9747496419026</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731558</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990342</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223198</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963761</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514758</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
-        <v>263.3534041739466</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.79057156673</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
